--- a/Code/import-excels/machine.xlsx
+++ b/Code/import-excels/machine.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\MyProjects\CS5551_Team_4_Project\Code\import-excels\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{823AB262-9B6C-4E6B-A8F6-FCA40C01B647}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC1351C9-073E-4E02-9F0F-69FA81A6AE99}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9204" xr2:uid="{91FE1A4B-B3A8-4887-8018-2353CE26F524}"/>
   </bookViews>
@@ -27,6 +27,35 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>machinegroup</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>model</t>
+  </si>
+  <si>
+    <t>dateOfInstall</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>barcode</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -376,14 +405,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D85F9D0-751A-4B2D-8271-2C12EA7A4958}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H1" sqref="H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>